--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4785B-4B65-4680-B4D1-6AA715BE16F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA8B16-1E76-4398-8FC1-8EE4DF52189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -148,23 +148,13 @@
     <t>为[$tagrole:name:{0}$]收集物品</t>
   </si>
   <si>
-    <t>Collection Quest ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
     <t>我想知道关于[$tagrole:name:{0}$]的事情?#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>I want to know something about [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
     <t>[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
-They suggest searching [$tagproduct:available_places:{1}$] for it. However, there may be other ways to get your hands on what you want.</t>
-  </si>
-  <si>
     <t>4#[$tagproduct:item_name:{1}$]×{2}#{2}#[$tagproduct:item_id:{1}$]#</t>
   </si>
   <si>
@@ -181,10 +171,6 @@
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
-I want to know something about [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
 作为奖励，你将得到其中的五分之一，也就是[&amp;{2}/5&amp;]乌塔。</t>
   </si>
@@ -308,9 +294,6 @@
     <t>[[imp:{0}]]希望你可以为他带来一队[[imp:{1}]]和一队[[imp:{2}]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can bring them one squad of &lt;color=red&gt;{1}&lt;/color&gt; and one squad of &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>10#招募一队{1}#1#{1}
 10#招募一队{2}#1#{2}</t>
   </si>
@@ -438,232 +421,242 @@
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
-    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Entrega una carta a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagrole:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Entrega una carta a [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Compra la misión ({0}).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; necesita [%item_name:{1}%] y espera que puedas traer &lt;color=red&gt;{2}&lt;/color&gt; muestras de ellos.</t>
-  </si>
-  <si>
-    <t>4#Recupera{2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
-    <t>Misión de recolección ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; necesita [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; y espera que puedas cumplir con su pedido. Están dispuestos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar por tu ayuda.
-Si bien hay muchas formas de obtener lo que necesitan, sugieren buscar en las siguientes áreas: [$tagproduct:available_places:{1}$].</t>
-  </si>
-  <si>
     <t>4#Recupera [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
   </si>
   <si>
-    <t>Cobra una deuda a [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; le debe a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te ha pedido que recuperes su merecida moneda.
-Acordaste trabajar con una comisión del 20% y recibirás [&amp;{2}/5&amp;] Utar como recompensa.</t>
-  </si>
-  <si>
-    <t>0#Cobra una deuda de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Transporta suministros de [$tagrole:name:{0}$] a [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>4#Obtener [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
-0#Transportar mercancías a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Transporta los suministros de [$tagplace:name:{0}$] a [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Acordaste ayudar a &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Derrota a [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
-Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudarlo a derrotar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrota las fuerzas de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y regresa con &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para informarle.</t>
-  </si>
-  <si>
-    <t>2#Derrota a [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
-  </si>
-  <si>
-    <t>Derrota a los bandidos en [$tagplace:name:{0}$].</t>
-  </si>
-  <si>
-    <t>Un grupo de bandidos está atacando a los viajeros cerca de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Ve y destrúyelos.</t>
-  </si>
-  <si>
-    <t>0#Derrota a los bandidos#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
-    <t>Captura al fugitivo de [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas capturar a un fugitivo en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Captura al fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Rescata a los nobles de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Los bandidos cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; han secuestrado a un noble de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Rescátalo.</t>
-  </si>
-  <si>
-    <t>0#Encuentra a los bandidos y rescata a los nobles.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Niños fugitivos ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres niños han huido de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encuéntralos si puedes.
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Compre a missão ({0}).</t>
+  </si>
+  <si>
+    <t>Missão de coleta ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Missão de Coleção ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Cobrar uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Transporte de suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Transporte suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Derrote [$tagrol:nome:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote os bandidos em [$tagplace:name:{0}$].</t>
+  </si>
+  <si>
+    <t>Capture o fugitivo de [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Crianças em fuga ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ajude [$tagplace:name:{1}$] a procurar desertores próximos a ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar um esquadrão de ({1}).</t>
+  </si>
+  <si>
+    <t>Envie para ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar os aldeões ({2}) para ({3}).</t>
+  </si>
+  <si>
+    <t>Acompanhe uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Doe Utar ({0}).</t>
+  </si>
+  <si>
+    <t>Junte-se à tribo ([$tagrole:campname:{1}$]).</t>
+  </si>
+  <si>
+    <t>Capture o posto avançado ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Solicite a rendição de ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Acusar o governante ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Incite uma rebelião ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Briga de Taverna ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$ ].#随机任务击败英雄打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; amostras deles.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espero que você consiga entregar com seu pedido. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1,3&amp;] Utar pela sua ajuda. Embora existam muitas maneiras de conseguir o que você precisa, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$].</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um [&amp;[$tagproduct:item_price:{1}$]* {2}*1.8&amp;] Use o orçamento se puder buscar amostras &lt;color=red&gt;{2}&lt;/color&gt;. Eles sugerem pesquisar [$tagproduct:available_places:{1}$] por ele. No entanto, pode haver outras maneiras de obter o que deseja.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu para você recuperar a merecida moeda dele. Você concordou em trabalhar com uma comissão de 20% e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$ ] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudá-lo a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e retorne a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para se reportar ele.</t>
+  </si>
+  <si>
+    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá e destrua-os.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você consiga capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; . Resgate-o.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-os se puder.
 </t>
   </si>
   <si>
-    <t>0#Encuentra a los niños fugitivos.#3##@place={0}</t>
-  </si>
-  <si>
-    <t>Ayuda a [$tagplace:name:{1}$] a buscar desertores cerca de ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas encontrar a toda una escuadra de desertores cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; y derrotarlos.</t>
-  </si>
-  <si>
-    <t>0#Busca a los desertores.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Ayuda a ({0}) a entrenar a una escuadra de ({1}).</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>10#Recluta un escuadrón de {1}#1#{1}
-10#Recluta un escuadrón de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>Envía a ([$tagrole:name:{1}$]) para ayudar a ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envía a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; de tu escuadra a hacer un recado.</t>
-  </si>
-  <si>
-    <t>0#Espera a que [$tagrole:name:{1}$] regrese.#1</t>
-  </si>
-  <si>
-    <t>Ayuda a ({0}) a entrenar a los aldeanos ({2}) a ({3}).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que puedas entrenar a un escuadrón de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegerlos del acoso de los bandidos.</t>
-  </si>
-  <si>
-    <t>10#Entrena un escuadrón de {2}.#1#{2}</t>
-  </si>
-  <si>
-    <t>Escolta una caravana hacia [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quiere que escoltes su caravana hasta &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Escolta una caravana.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Donar Utar ({0}).</t>
-  </si>
-  <si>
-    <t>Los fondos son escasos para &lt;color=red&gt;{0}&lt;/color&gt;, quien espera que puedas ayudarlo a donar algunos Utar para la causa.</t>
-  </si>
-  <si>
-    <t>Únete a la tribu ([$tagrole:campname:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escribió una carta de recomendación para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, instándolos a que te acepten en su tribu.</t>
-  </si>
-  <si>
-    <t>0#Encuentra a [$tagrole:name:{1}$] y jura lealtad.#0##@role={1}</t>
-  </si>
-  <si>
-    <t>Captura el puesto avanzado ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugiere que ataques &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Ataca a [$tagplace:name:{1}$]#1##@place={1}</t>
-  </si>
-  <si>
-    <t>Pide rendición a ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para rendir a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a ti.</t>
-  </si>
-  <si>
-    <t>0#Pide la rendición de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Acusa al gobernante ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quiere recolectar información comprometedora sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y acusarlos por sus crímenes.</t>
-  </si>
-  <si>
-    <t>0#Recopila información comprometedora sobre [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
-    <t>Incita a una rebelión ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; desea ayuda para incitar una rebelión contra el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; y formar su propia tribu.</t>
-  </si>
-  <si>
-    <t>0#Reúne y apoya aquellos insatisfechos con el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
-  </si>
-  <si>
-    <t>Riña en la taberna ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas viajar a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para pelear con los rufianes locales.</t>
-  </si>
-  <si>
-    <t>0#Viaja a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você encontre um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/ color&gt; e derrotá-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você consiga trazer para eles um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envie &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; do seu esquadrão para uma missão.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio aos bandidos.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você acompanhe a caravana dele até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os fundos estão escassos para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudá-lo a doar um pouco de Utar para a causa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, pedindo para que eles aceitem você em sua tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está pronto para renderizar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; para você.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; deseja coletar informações comprometedoras sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-lo de seus crimes.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; e forme sua própria tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espero que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para lutar com os rufiões locais.</t>
+  </si>
+  <si>
+    <t>0#Entregue uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Entregue uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Recuperar{2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>0#Cobrar uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]# 0#Transporte mercadorias para [$tagplace:name:{1}$ ]#1##@lugar={1}|LUGAR:CIDADE:{1}</t>
+  </si>
+  <si>
+    <t>2#Derrota [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos#1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>0#Capture o fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre os bandidos e resgate os nobres.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre as crianças fugitivas.#3##@place={0}</t>
+  </si>
+  <si>
+    <t>0#Procure pelos desertores.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>10#Recrute um esquadrão de {1}#1#{1} 10#Recrute um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Aguarde o retorno de [$tagrole:name:{1}$].#1</t>
+  </si>
+  <si>
+    <t>10#Treine um esquadrão de {2}.#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Acompanhe uma caravana.#1##@place={1}|LOCAL:CIDADE:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre [$tagrole:name:{1}$] e jure lealdade.#0##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
+  </si>
+  <si>
+    <t>0#Solicite a rendição de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Coleta informações comprometedoras sobre [$tagrole:name:{1}$]#3</t>
+  </si>
+  <si>
+    <t>0#Reunir e apoiar aqueles que estão insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
+  </si>
+  <si>
+    <t>0#Viaje para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
   </si>
 </sst>
 </file>
@@ -802,7 +795,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +819,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
@@ -837,7 +830,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1188,15 +1181,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="88.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,20 +1232,20 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150">
@@ -1261,25 +1256,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="131.25">
@@ -1290,23 +1285,23 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="300">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1314,20 +1309,20 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="281.25">
@@ -1338,527 +1333,527 @@
         <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="225">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.5">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="187.5">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="131.25">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="187.5">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="229.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="112.5">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="187.5">
       <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I15" s="9" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="150">
       <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I16" s="10" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168.75">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="112.5">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="187.5">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="168.75">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="131.25">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="131.25">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="131.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="187.5">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="187.5">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>195</v>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA8B16-1E76-4398-8FC1-8EE4DF52189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4785B-4B65-4680-B4D1-6AA715BE16F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -148,13 +148,23 @@
     <t>为[$tagrole:name:{0}$]收集物品</t>
   </si>
   <si>
+    <t>Collection Quest ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
     <t>我想知道关于[$tagrole:name:{0}$]的事情?#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>I want to know something about [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
     <t>[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
+They suggest searching [$tagproduct:available_places:{1}$] for it. However, there may be other ways to get your hands on what you want.</t>
+  </si>
+  <si>
     <t>4#[$tagproduct:item_name:{1}$]×{2}#{2}#[$tagproduct:item_id:{1}$]#</t>
   </si>
   <si>
@@ -171,6 +181,10 @@
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
+    <t>I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
+I want to know something about [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
+  </si>
+  <si>
     <t>[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
 作为奖励，你将得到其中的五分之一，也就是[&amp;{2}/5&amp;]乌塔。</t>
   </si>
@@ -294,6 +308,9 @@
     <t>[[imp:{0}]]希望你可以为他带来一队[[imp:{1}]]和一队[[imp:{2}]]。</t>
   </si>
   <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can bring them one squad of &lt;color=red&gt;{1}&lt;/color&gt; and one squad of &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
     <t>10#招募一队{1}#1#{1}
 10#招募一队{2}#1#{2}</t>
   </si>
@@ -421,242 +438,232 @@
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
+    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Entrega una carta a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Deseo saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Entrega una carta a [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>Compra la misión ({0}).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; necesita [%item_name:{1}%] y espera que puedas traer &lt;color=red&gt;{2}&lt;/color&gt; muestras de ellos.</t>
+  </si>
+  <si>
+    <t>4#Recupera{2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>Misión de recolección ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; necesita [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; y espera que puedas cumplir con su pedido. Están dispuestos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar por tu ayuda.
+Si bien hay muchas formas de obtener lo que necesitan, sugieren buscar en las siguientes áreas: [$tagproduct:available_places:{1}$].</t>
+  </si>
+  <si>
     <t>4#Recupera [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
   </si>
   <si>
-    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Compre a missão ({0}).</t>
-  </si>
-  <si>
-    <t>Missão de coleta ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Missão de Coleção ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Cobrar uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Transporte de suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Transporte suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Derrote [$tagrol:nome:{1}$]</t>
-  </si>
-  <si>
-    <t>Derrote os bandidos em [$tagplace:name:{0}$].</t>
-  </si>
-  <si>
-    <t>Capture o fugitivo de [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Crianças em fuga ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Ajude [$tagplace:name:{1}$] a procurar desertores próximos a ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar um esquadrão de ({1}).</t>
-  </si>
-  <si>
-    <t>Envie para ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar os aldeões ({2}) para ({3}).</t>
-  </si>
-  <si>
-    <t>Acompanhe uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Doe Utar ({0}).</t>
-  </si>
-  <si>
-    <t>Junte-se à tribo ([$tagrole:campname:{1}$]).</t>
-  </si>
-  <si>
-    <t>Capture o posto avançado ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Solicite a rendição de ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Acusar o governante ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Incite uma rebelião ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Briga de Taverna ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$ ].#随机任务击败英雄打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; amostras deles.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espero que você consiga entregar com seu pedido. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1,3&amp;] Utar pela sua ajuda. Embora existam muitas maneiras de conseguir o que você precisa, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$].</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um [&amp;[$tagproduct:item_price:{1}$]* {2}*1.8&amp;] Use o orçamento se puder buscar amostras &lt;color=red&gt;{2}&lt;/color&gt;. Eles sugerem pesquisar [$tagproduct:available_places:{1}$] por ele. No entanto, pode haver outras maneiras de obter o que deseja.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu para você recuperar a merecida moeda dele. Você concordou em trabalhar com uma comissão de 20% e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$ ] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudá-lo a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e retorne a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para se reportar ele.</t>
-  </si>
-  <si>
-    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá e destrua-os.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você consiga capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; . Resgate-o.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-os se puder.
+    <t>Cobra una deuda a [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; le debe a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te ha pedido que recuperes su merecida moneda.
+Acordaste trabajar con una comisión del 20% y recibirás [&amp;{2}/5&amp;] Utar como recompensa.</t>
+  </si>
+  <si>
+    <t>0#Cobra una deuda de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>Transporta suministros de [$tagrole:name:{0}$] a [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>4#Obtener [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
+0#Transportar mercancías a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Transporta los suministros de [$tagplace:name:{0}$] a [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Acordaste ayudar a &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Derrota a [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Deseo saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
+Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudarlo a derrotar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrota las fuerzas de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y regresa con &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para informarle.</t>
+  </si>
+  <si>
+    <t>2#Derrota a [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
+  </si>
+  <si>
+    <t>Derrota a los bandidos en [$tagplace:name:{0}$].</t>
+  </si>
+  <si>
+    <t>Un grupo de bandidos está atacando a los viajeros cerca de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Ve y destrúyelos.</t>
+  </si>
+  <si>
+    <t>0#Derrota a los bandidos#1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>Captura al fugitivo de [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas capturar a un fugitivo en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Captura al fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Rescata a los nobles de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Los bandidos cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; han secuestrado a un noble de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Rescátalo.</t>
+  </si>
+  <si>
+    <t>0#Encuentra a los bandidos y rescata a los nobles.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Niños fugitivos ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres niños han huido de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encuéntralos si puedes.
 </t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você encontre um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/ color&gt; e derrotá-los.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você consiga trazer para eles um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envie &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; do seu esquadrão para uma missão.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio aos bandidos.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você acompanhe a caravana dele até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Os fundos estão escassos para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudá-lo a doar um pouco de Utar para a causa.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, pedindo para que eles aceitem você em sua tribo.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está pronto para renderizar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; para você.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; deseja coletar informações comprometedoras sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-lo de seus crimes.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; e forme sua própria tribo.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espero que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para lutar com os rufiões locais.</t>
-  </si>
-  <si>
-    <t>0#Entregue uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Entregue uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>4#Recuperar{2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
-    <t>0#Cobrar uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]# 0#Transporte mercadorias para [$tagplace:name:{1}$ ]#1##@lugar={1}|LUGAR:CIDADE:{1}</t>
-  </si>
-  <si>
-    <t>2#Derrota [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
-  </si>
-  <si>
-    <t>0#Derrote os bandidos#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
-    <t>0#Capture o fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre os bandidos e resgate os nobres.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre as crianças fugitivas.#3##@place={0}</t>
-  </si>
-  <si>
-    <t>0#Procure pelos desertores.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>10#Recrute um esquadrão de {1}#1#{1} 10#Recrute um esquadrão de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Aguarde o retorno de [$tagrole:name:{1}$].#1</t>
-  </si>
-  <si>
-    <t>10#Treine um esquadrão de {2}.#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Acompanhe uma caravana.#1##@place={1}|LOCAL:CIDADE:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre [$tagrole:name:{1}$] e jure lealdade.#0##@role={1}</t>
-  </si>
-  <si>
-    <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
-  </si>
-  <si>
-    <t>0#Solicite a rendição de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>0#Coleta informações comprometedoras sobre [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
-    <t>0#Reunir e apoiar aqueles que estão insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
-  </si>
-  <si>
-    <t>0#Viaje para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>0#Encuentra a los niños fugitivos.#3##@place={0}</t>
+  </si>
+  <si>
+    <t>Ayuda a [$tagplace:name:{1}$] a buscar desertores cerca de ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Deseo saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas encontrar a toda una escuadra de desertores cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; y derrotarlos.</t>
+  </si>
+  <si>
+    <t>0#Busca a los desertores.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Ayuda a ({0}) a entrenar a una escuadra de ({1}).</t>
+  </si>
+  <si>
+    <t>Deseo saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>10#Recluta un escuadrón de {1}#1#{1}
+10#Recluta un escuadrón de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>Envía a ([$tagrole:name:{1}$]) para ayudar a ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envía a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; de tu escuadra a hacer un recado.</t>
+  </si>
+  <si>
+    <t>0#Espera a que [$tagrole:name:{1}$] regrese.#1</t>
+  </si>
+  <si>
+    <t>Ayuda a ({0}) a entrenar a los aldeanos ({2}) a ({3}).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que puedas entrenar a un escuadrón de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegerlos del acoso de los bandidos.</t>
+  </si>
+  <si>
+    <t>10#Entrena un escuadrón de {2}.#1#{2}</t>
+  </si>
+  <si>
+    <t>Escolta una caravana hacia [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quiere que escoltes su caravana hasta &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Escolta una caravana.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>Donar Utar ({0}).</t>
+  </si>
+  <si>
+    <t>Los fondos son escasos para &lt;color=red&gt;{0}&lt;/color&gt;, quien espera que puedas ayudarlo a donar algunos Utar para la causa.</t>
+  </si>
+  <si>
+    <t>Únete a la tribu ([$tagrole:campname:{1}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escribió una carta de recomendación para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, instándolos a que te acepten en su tribu.</t>
+  </si>
+  <si>
+    <t>0#Encuentra a [$tagrole:name:{1}$] y jura lealtad.#0##@role={1}</t>
+  </si>
+  <si>
+    <t>Captura el puesto avanzado ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugiere que ataques &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Ataca a [$tagplace:name:{1}$]#1##@place={1}</t>
+  </si>
+  <si>
+    <t>Pide rendición a ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para rendir a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a ti.</t>
+  </si>
+  <si>
+    <t>0#Pide la rendición de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>Acusa al gobernante ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quiere recolectar información comprometedora sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y acusarlos por sus crímenes.</t>
+  </si>
+  <si>
+    <t>0#Recopila información comprometedora sobre [$tagrole:name:{1}$]#3</t>
+  </si>
+  <si>
+    <t>Incita a una rebelión ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; desea ayuda para incitar una rebelión contra el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; y formar su propia tribu.</t>
+  </si>
+  <si>
+    <t>0#Reúne y apoya aquellos insatisfechos con el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
+  </si>
+  <si>
+    <t>Riña en la taberna ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas viajar a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para pelear con los rufianes locales.</t>
+  </si>
+  <si>
+    <t>0#Viaja a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
   </si>
 </sst>
 </file>
@@ -795,7 +802,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,7 +826,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
@@ -830,7 +837,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1181,17 +1188,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="88.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1232,20 +1237,20 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150">
@@ -1256,25 +1261,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="131.25">
@@ -1285,23 +1290,23 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="300">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.5">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1309,20 +1314,20 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="281.25">
@@ -1333,527 +1338,527 @@
         <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="225">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.5">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="187.5">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="131.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="187.5">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="112.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="229.5">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="187.5">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="150">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168.75">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="112.5">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="187.5">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75">
       <c r="A20" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="168.75">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="131.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="131.25">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="131.25">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="187.5">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="187.5">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>195</v>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4785B-4B65-4680-B4D1-6AA715BE16F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF95C5-3206-4990-B192-B1D339E82F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -148,23 +148,13 @@
     <t>为[$tagrole:name:{0}$]收集物品</t>
   </si>
   <si>
-    <t>Collection Quest ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
     <t>我想知道关于[$tagrole:name:{0}$]的事情?#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>I want to know something about [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
     <t>[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
-They suggest searching [$tagproduct:available_places:{1}$] for it. However, there may be other ways to get your hands on what you want.</t>
-  </si>
-  <si>
     <t>4#[$tagproduct:item_name:{1}$]×{2}#{2}#[$tagproduct:item_id:{1}$]#</t>
   </si>
   <si>
@@ -181,10 +171,6 @@
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
-I want to know something about [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
 作为奖励，你将得到其中的五分之一，也就是[&amp;{2}/5&amp;]乌塔。</t>
   </si>
@@ -308,9 +294,6 @@
     <t>[[imp:{0}]]希望你可以为他带来一队[[imp:{1}]]和一队[[imp:{2}]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can bring them one squad of &lt;color=red&gt;{1}&lt;/color&gt; and one squad of &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>10#招募一队{1}#1#{1}
 10#招募一队{2}#1#{2}</t>
   </si>
@@ -438,232 +421,241 @@
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
-    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Entrega una carta a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Ayuda a [$tagrole:name:{0}$] a entregar una carta a [$tagrole:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te suplica que entregues una carta a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Entrega una carta a [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Compra la misión ({0}).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; necesita [%item_name:{1}%] y espera que puedas traer &lt;color=red&gt;{2}&lt;/color&gt; muestras de ellos.</t>
-  </si>
-  <si>
-    <t>4#Recupera{2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
-    <t>Misión de recolección ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; necesita [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; y espera que puedas cumplir con su pedido. Están dispuestos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar por tu ayuda.
-Si bien hay muchas formas de obtener lo que necesitan, sugieren buscar en las siguientes áreas: [$tagproduct:available_places:{1}$].</t>
-  </si>
-  <si>
     <t>4#Recupera [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
   </si>
   <si>
-    <t>Cobra una deuda a [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; le debe a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; te ha pedido que recuperes su merecida moneda.
-Acordaste trabajar con una comisión del 20% y recibirás [&amp;{2}/5&amp;] Utar como recompensa.</t>
-  </si>
-  <si>
-    <t>0#Cobra una deuda de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Transporta suministros de [$tagrole:name:{0}$] a [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>4#Obtener [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
-0#Transportar mercancías a [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Transporta los suministros de [$tagplace:name:{0}$] a [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Acordaste ayudar a &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; a &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Derrota a [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
-Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas ayudarlo a derrotar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrota las fuerzas de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y regresa con &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para informarle.</t>
-  </si>
-  <si>
-    <t>2#Derrota a [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
-  </si>
-  <si>
-    <t>Derrota a los bandidos en [$tagplace:name:{0}$].</t>
-  </si>
-  <si>
-    <t>Un grupo de bandidos está atacando a los viajeros cerca de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Ve y destrúyelos.</t>
-  </si>
-  <si>
-    <t>0#Derrota a los bandidos#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
-    <t>Captura al fugitivo de [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas capturar a un fugitivo en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Captura al fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Rescata a los nobles de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Los bandidos cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; han secuestrado a un noble de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Rescátalo.</t>
-  </si>
-  <si>
-    <t>0#Encuentra a los bandidos y rescata a los nobles.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Niños fugitivos ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres niños han huido de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encuéntralos si puedes.
-</t>
-  </si>
-  <si>
-    <t>0#Encuentra a los niños fugitivos.#3##@place={0}</t>
-  </si>
-  <si>
-    <t>Ayuda a [$tagplace:name:{1}$] a buscar desertores cerca de ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas encontrar a toda una escuadra de desertores cerca de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; y derrotarlos.</t>
-  </si>
-  <si>
-    <t>0#Busca a los desertores.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Ayuda a ({0}) a entrenar a una escuadra de ({1}).</t>
-  </si>
-  <si>
-    <t>Deseo saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>10#Recluta un escuadrón de {1}#1#{1}
-10#Recluta un escuadrón de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>Envía a ([$tagrole:name:{1}$]) para ayudar a ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envía a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; de tu escuadra a hacer un recado.</t>
-  </si>
-  <si>
-    <t>0#Espera a que [$tagrole:name:{1}$] regrese.#1</t>
-  </si>
-  <si>
-    <t>Ayuda a ({0}) a entrenar a los aldeanos ({2}) a ({3}).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que puedas entrenar a un escuadrón de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegerlos del acoso de los bandidos.</t>
-  </si>
-  <si>
-    <t>10#Entrena un escuadrón de {2}.#1#{2}</t>
-  </si>
-  <si>
-    <t>Escolta una caravana hacia [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quiere que escoltes su caravana hasta &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Escolta una caravana.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>Donar Utar ({0}).</t>
-  </si>
-  <si>
-    <t>Los fondos son escasos para &lt;color=red&gt;{0}&lt;/color&gt;, quien espera que puedas ayudarlo a donar algunos Utar para la causa.</t>
-  </si>
-  <si>
-    <t>Únete a la tribu ([$tagrole:campname:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escribió una carta de recomendación para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, instándolos a que te acepten en su tribu.</t>
-  </si>
-  <si>
-    <t>0#Encuentra a [$tagrole:name:{1}$] y jura lealtad.#0##@role={1}</t>
-  </si>
-  <si>
-    <t>Captura el puesto avanzado ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugiere que ataques &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Ataca a [$tagplace:name:{1}$]#1##@place={1}</t>
-  </si>
-  <si>
-    <t>Pide rendición a ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para rendir a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a ti.</t>
-  </si>
-  <si>
-    <t>0#Pide la rendición de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>Acusa al gobernante ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quiere recolectar información comprometedora sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; y acusarlos por sus crímenes.</t>
-  </si>
-  <si>
-    <t>0#Recopila información comprometedora sobre [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
-    <t>Incita a una rebelión ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; desea ayuda para incitar una rebelión contra el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; y formar su propia tribu.</t>
-  </si>
-  <si>
-    <t>0#Reúne y apoya aquellos insatisfechos con el gobernante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
-  </si>
-  <si>
-    <t>Riña en la taberna ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que puedas viajar a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para pelear con los rufianes locales.</t>
-  </si>
-  <si>
-    <t>0#Viaja a la taberna en &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Compre a missão ({0}).</t>
+  </si>
+  <si>
+    <t>Missão de coleta ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Missão de Coleção ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Cobrar uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Transporte de suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Transporte suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Derrote [$tagrol:nome:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote os bandidos em [$tagplace:name:{0}$].</t>
+  </si>
+  <si>
+    <t>Capture o fugitivo de [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Crianças em fuga ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ajude [$tagplace:name:{1}$] a procurar desertores próximos a ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar um esquadrão de ({1}).</t>
+  </si>
+  <si>
+    <t>Envie para ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar os aldeões ({2}) para ({3}).</t>
+  </si>
+  <si>
+    <t>Acompanhe uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Doe Utar ({0}).</t>
+  </si>
+  <si>
+    <t>Junte-se à tribo ([$tagrole:campname:{1}$]).</t>
+  </si>
+  <si>
+    <t>Capture o posto avançado ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Solicite a rendição de ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Acusar o governante ([$tagrole:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Incite uma rebelião ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Briga de Taverna ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$ ].#随机任务击败英雄打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Quero saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; amostras deles.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espero que você consiga entregar com seu pedido. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1,3&amp;] Utar pela sua ajuda. Embora existam muitas maneiras de conseguir o que você precisa, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$].</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um [&amp;[$tagproduct:item_price:{1}$]* {2}*1.8&amp;] Use o orçamento se puder buscar amostras &lt;color=red&gt;{2}&lt;/color&gt;. Eles sugerem pesquisar [$tagproduct:available_places:{1}$] por ele. No entanto, pode haver outras maneiras de obter o que deseja.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu para você recuperar a merecida moeda dele. Você concordou em trabalhar com uma comissão de 20% e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$ ] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudá-lo a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e retorne a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para reportar-se a ele.</t>
+  </si>
+  <si>
+    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá e destrua-os.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você consiga capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; . Resgate-o.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-os se puder.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você encontre um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/ color &gt; e derrotá-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você consiga trazer para eles um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envie &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; do seu esquadrão para uma missão.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio aos bandidos.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você acompanhe a caravana dele até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os fundos estão escassos para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudá-lo a doar um pouco de Utar para a causa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, pedindo para que eles aceitem você em sua tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está pronto para renderizar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; para você.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; deseja coletar informações comprometedoras sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-lo de seus crimes.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; e forme sua própria tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espero que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para lutar com os rufiões locais.</t>
+  </si>
+  <si>
+    <t>0#Entregue uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Entregue uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Recuperar{2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>0#Cobrar uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]# 0#Transporte mercadorias para [$tagplace:name:{1}$ ]#1##@lugar={1}|LUGAR:CIDADE:{1}</t>
+  </si>
+  <si>
+    <t>2#Derrota [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos#1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>0#Capture o fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre os bandidos e resgate os nobres.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre as crianças fugitivas.#3##@place={0}</t>
+  </si>
+  <si>
+    <t>0#Procure pelos desertores.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>10#Recrute um esquadrão de {1}#1#{1} 10#Recrute um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Aguarde o retorno de [$tagrole:name:{1}$].#1</t>
+  </si>
+  <si>
+    <t>10#Treine um esquadrão de {2}.#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Acompanhe uma caravana.#1##@place={1}|LOCAL:CIDADE:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre [$tagrole:name:{1}$] e jure lealdade.#0##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
+  </si>
+  <si>
+    <t>0#Solicite a entrega de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Coleta informações comprometedoras sobre [$tagrole:name:{1}$]#3</t>
+  </si>
+  <si>
+    <t>0#Reúna-se e apoie aqueles que estão insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
+  </si>
+  <si>
+    <t>0#Viaje para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
   </si>
 </sst>
 </file>
@@ -802,7 +794,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
@@ -837,7 +829,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1188,12 +1180,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="88.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
@@ -1237,20 +1230,20 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150">
@@ -1261,25 +1254,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="131.25">
@@ -1290,20 +1283,20 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.5">
@@ -1314,20 +1307,20 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="281.25">
@@ -1338,527 +1331,527 @@
         <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="409.5">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="187.5">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="131.25">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="187.5">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="229.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="175.5">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="187.5">
       <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I15" s="9" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="150">
       <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I16" s="10" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168.75">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="112.5">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="187.5">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="168.75">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="131.25">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="131.25">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="131.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="187.5">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="187.5">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>195</v>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF95C5-3206-4990-B192-B1D339E82F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB36E2-0DFB-45D8-8BE7-DB0D72071372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -421,241 +421,245 @@
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
-    <t>4#Recupera [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
-  </si>
-  <si>
     <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
   </si>
   <si>
-    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Compre a missão ({0}).</t>
-  </si>
-  <si>
-    <t>Missão de coleta ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Missão de Coleção ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Cobrar uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Transporte de suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Transporte suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Derrote [$tagrol:nome:{1}$]</t>
-  </si>
-  <si>
-    <t>Derrote os bandidos em [$tagplace:name:{0}$].</t>
-  </si>
-  <si>
-    <t>Capture o fugitivo de [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocinador: [$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Crianças em fuga ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Ajude [$tagplace:name:{1}$] a procurar desertores próximos a ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar um esquadrão de ({1}).</t>
-  </si>
-  <si>
-    <t>Envie para ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar os aldeões ({2}) para ({3}).</t>
-  </si>
-  <si>
-    <t>Acompanhe uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Doe Utar ({0}).</t>
-  </si>
-  <si>
-    <t>Junte-se à tribo ([$tagrole:campname:{1}$]).</t>
-  </si>
-  <si>
-    <t>Capture o posto avançado ([$tagplace:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Solicite a rendição de ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Acusar o governante ([$tagrole:name:{1}$]).</t>
-  </si>
-  <si>
-    <t>Incite uma rebelião ([$tagrole:name:{0}$]).</t>
-  </si>
-  <si>
-    <t>Briga de Taverna ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #RandomQuestInquireAboutHeroDeliveringLetterEvent1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1 Quero saber algo sobre [$tagrole:name:{0}$ ].#随机任务击败英雄打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Quero saber algo sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora que você entregue uma carta para &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; amostras deles.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espero que você consiga entregar com seu pedido. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1,3&amp;] Utar pela sua ajuda. Embora existam muitas maneiras de conseguir o que você precisa, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$].</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um [&amp;[$tagproduct:item_price:{1}$]* {2}*1.8&amp;] Use o orçamento se puder buscar amostras &lt;color=red&gt;{2}&lt;/color&gt;. Eles sugerem pesquisar [$tagproduct:available_places:{1}$] por ele. No entanto, pode haver outras maneiras de obter o que deseja.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu para você recuperar a merecida moeda dele. Você concordou em trabalhar com uma comissão de 20% e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$ ] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudá-lo a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e retorne a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; para reportar-se a ele.</t>
-  </si>
-  <si>
-    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá e destrua-os.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você consiga capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; . Resgate-o.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-os se puder.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você encontre um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/ color &gt; e derrotá-los.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você consiga trazer para eles um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; envie &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; do seu esquadrão para uma missão.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; a &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio aos bandidos.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você acompanhe a caravana dele até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Os fundos estão escassos para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudá-lo a doar um pouco de Utar para a causa.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para entregar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, pedindo para que eles aceitem você em sua tribo.</t>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Comprar Missão ({0})</t>
+  </si>
+  <si>
+    <t>Missão de Coleta ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Missão de Coleta ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Colete uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Transporte os suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Transporte de suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote os bandidos de ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Capturar os fugitivos de [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocínio: [$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Crianças fugitivas ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Ajude [$tagplace:name:{1}$] a procurar desertores perto de ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar um esquadrão de ({1})</t>
+  </si>
+  <si>
+    <t>Despache ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar os aldeões ({2}) até ({3})</t>
+  </si>
+  <si>
+    <t>Escolte uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe ({0}) Utar </t>
+  </si>
+  <si>
+    <t>Junte-se à tribo ([$tagrole:campname:{1}$])</t>
+  </si>
+  <si>
+    <t>Capture o posto avançado ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Pedir a rendição do inimigo ([$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Acusar o senhor da cidade ([$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Instigar uma rebelião ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Dê uma lição aos vagabundos da taverna de ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
+Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务送信英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
+Eu gostaria de saber mais sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora para que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de algumas amostras de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; delas.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espera que você possa atender ao pedido deles. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar pela sua ajuda.
+Embora haja uma miríade de métodos para adquirir o que eles precisam, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$]</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um orçamento de [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar se você puder pegar &lt;color=red&gt;{2}&lt;/color&gt; amostras.
+Eles sugerem procurar em [$tagproduct:available_places:{1}$] por isso. No entanto, pode haver outras maneiras de conseguir o que você quer.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve {2} Utar a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu que você recupere o dinheiro que eles ganharam com tanto esforço.
+Você concordou em trabalhar com uma comissão de 20%, e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e relate a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá destruí-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Resgate-os.</t>
+  </si>
+  <si>
+    <t>Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-as, se puder.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa encontrar um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; e derrotá-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa trazer um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; da sua equipe designa &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;para uma missão.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; para &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio de bandidos.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você escolte a caravana deles até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os fundos estão acabando para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudar a doar alguns Utar para a causa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para dar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;,  pedindo-lhe que o aceitasse em sua tribo.</t>
   </si>
   <si>
     <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está pronto para renderizar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; para você.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; deseja coletar informações comprometedoras sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-lo de seus crimes.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; e forme sua própria tribo.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espero que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para lutar com os rufiões locais.</t>
-  </si>
-  <si>
-    <t>0#Entregue uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Entregue uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>4#Recuperar{2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
-    <t>0#Cobrar uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]# 0#Transporte mercadorias para [$tagplace:name:{1}$ ]#1##@lugar={1}|LUGAR:CIDADE:{1}</t>
-  </si>
-  <si>
-    <t>2#Derrota [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
-  </si>
-  <si>
-    <t>0#Derrote os bandidos#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
-    <t>0#Capture o fugitivo.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre os bandidos e resgate os nobres.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre as crianças fugitivas.#3##@place={0}</t>
-  </si>
-  <si>
-    <t>0#Procure pelos desertores.#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>10#Recrute um esquadrão de {1}#1#{1} 10#Recrute um esquadrão de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Aguarde o retorno de [$tagrole:name:{1}$].#1</t>
-  </si>
-  <si>
-    <t>10#Treine um esquadrão de {2}.#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Acompanhe uma caravana.#1##@place={1}|LOCAL:CIDADE:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre [$tagrole:name:{1}$] e jure lealdade.#0##@role={1}</t>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para entregar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a você.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer reunir informações sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-los por seus crimes.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; para formar sua própria tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para brigar com os arruaceiros locais.</t>
+  </si>
+  <si>
+    <t>0#Entregar uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Entregar uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Recuperar {2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>4#Recuperar [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
+  </si>
+  <si>
+    <t>0#Cobre uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
+0#Transporte as mercadorias para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>2#Derrote [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos em#1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>0#Capturar o fugitivo em#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre os bandidos e resgate o nobre#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre as crianças fugitivas#3##@place={0}</t>
+  </si>
+  <si>
+    <t>0#Procure desertores em #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>10#Recrutar um esquadrão de {1}#1#{1}
+10#Recrutar um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Aguardando [$tagrole:name:{1}$] tretornar ao time#1</t>
+  </si>
+  <si>
+    <t>10#Treinar um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Escoltar uma caravana#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre [$tagrole:name:{1}$] e jure sua lealdade#0##@role={1}</t>
   </si>
   <si>
     <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
   </si>
   <si>
-    <t>0#Solicite a entrega de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>0#Coleta informações comprometedoras sobre [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
-    <t>0#Reúna-se e apoie aqueles que estão insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;.#2</t>
-  </si>
-  <si>
-    <t>0#Viaje para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>0#Peça a rendição de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Colete provas contra [$tagrole:name:{1}$]#3</t>
+  </si>
+  <si>
+    <t>0#Reúna o apoio dos insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;#2</t>
+  </si>
+  <si>
+    <t>0#Viaje para a taverna em&lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
   </si>
 </sst>
 </file>
@@ -1180,17 +1184,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="88.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="174.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.125" customWidth="1"/>
+    <col min="7" max="7" width="255.625" customWidth="1"/>
+    <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="93.75">
@@ -1222,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="187.5">
+    <row r="2" spans="1:9" ht="243.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,23 +1237,23 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="150">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1254,28 +1261,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="131.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1283,23 +1290,23 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="131.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1307,23 +1314,23 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="281.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="93.75">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1331,19 +1338,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>154</v>
+      <c r="G6" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
@@ -1352,7 +1359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.5">
+    <row r="7" spans="1:9" ht="75">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1360,28 +1367,28 @@
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>145</v>
+      <c r="E7" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="206.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1389,23 +1396,23 @@
         <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="206.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1413,23 +1420,23 @@
         <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="187.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1437,28 +1444,28 @@
         <v>45</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="131.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1466,23 +1473,23 @@
         <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="131.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="56.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1490,28 +1497,28 @@
         <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="187.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -1519,23 +1526,23 @@
         <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="175.5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="56.25">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1543,23 +1550,23 @@
         <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>162</v>
+      <c r="G14" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="187.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="56.25">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -1567,28 +1574,28 @@
         <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="150">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="56.25">
       <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
@@ -1596,28 +1603,28 @@
         <v>72</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="168.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="56.25">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
@@ -1625,23 +1632,23 @@
         <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="112.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="56.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -1649,23 +1656,23 @@
         <v>81</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="187.5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="56.25">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -1673,23 +1680,23 @@
         <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="75">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="56.25">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
@@ -1697,14 +1704,14 @@
         <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>91</v>
@@ -1713,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="168.75">
+    <row r="21" spans="1:9" ht="300">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1721,23 +1728,23 @@
         <v>94</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="131.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="225">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -1745,23 +1752,23 @@
         <v>98</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="131.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="225">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -1769,23 +1776,23 @@
         <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="131.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="281.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1793,23 +1800,23 @@
         <v>106</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="187.5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1817,23 +1824,23 @@
         <v>110</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="187.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -1841,20 +1848,20 @@
         <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9">

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB36E2-0DFB-45D8-8BE7-DB0D72071372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B6103-5ACB-4CCA-A380-4B68F7D9B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,23 +1184,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="174.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.125" customWidth="1"/>
     <col min="7" max="7" width="255.625" customWidth="1"/>
     <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="93.75">
+    <row r="1" spans="1:9" ht="56.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="243.75">
+    <row r="2" spans="1:9" ht="56.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="131.25">
+    <row r="5" spans="1:9" ht="75">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93.75">
+    <row r="6" spans="1:9" ht="75">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="206.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="206.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="56.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="300">
+    <row r="21" spans="1:9" ht="75">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="225">
+    <row r="22" spans="1:9" ht="56.25">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="225">
+    <row r="23" spans="1:9" ht="56.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="281.25">
+    <row r="24" spans="1:9" ht="56.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="93.75">
+    <row r="25" spans="1:9" ht="56.25">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75">
+    <row r="26" spans="1:9" ht="37.5">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B6103-5ACB-4CCA-A380-4B68F7D9B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862E7A30-749F-4173-A58B-1CE0CCF65E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -421,79 +421,96 @@
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
-    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
-  </si>
-  <si>
-    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Comprar Missão ({0})</t>
-  </si>
-  <si>
-    <t>Missão de Coleta ([$tagplace:name:{0}$]).</t>
+    <t>测试通用任务</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta em [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Compra de Itens ({0})</t>
+  </si>
+  <si>
+    <t>Missão de Coleta ([$tagplace:name:{0}$])</t>
   </si>
   <si>
     <t>Missão de Coleta ([$tagrole:name:{0}$])</t>
   </si>
   <si>
-    <t>Colete uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Transporte os suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Transporte de suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Derrote [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Derrote os bandidos de ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Capturar os fugitivos de [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
-    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocínio: [$tagplace:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Crianças fugitivas ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Ajude [$tagplace:name:{1}$] a procurar desertores perto de ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar um esquadrão de ({1})</t>
-  </si>
-  <si>
-    <t>Despache ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Ajude ({0}) a treinar os aldeões ({2}) até ({3})</t>
-  </si>
-  <si>
-    <t>Escolte uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doe ({0}) Utar </t>
-  </si>
-  <si>
-    <t>Junte-se à tribo ([$tagrole:campname:{1}$])</t>
-  </si>
-  <si>
-    <t>Capture o posto avançado ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Pedir a rendição do inimigo ([$tagrole:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Acusar o senhor da cidade ([$tagrole:name:{1}$])</t>
-  </si>
-  <si>
-    <t>Instigar uma rebelião ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
-    <t>Dê uma lição aos vagabundos da taverna de ([$tagplace:name:{1}$])</t>
+    <t>Procure [$tagrole:name:{0}$] para cobrar uma dívida de [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a transportar os recursos para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Transporte os recursos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Derrote [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Derrote os Bandidos ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture os fugitivos em [$tagplace:name:{1}$].
+</t>
+  </si>
+  <si>
+    <t>Resgate a nobreza de [$tagplace:name:{0}$], que foi sequestrada em [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Crianças Fugitivas ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Assuma a liderança na captura dos desertores nas proximidades de [$tagplace:name:{1}$], em busca de [$tagrole:name:{0}$] e sua equipe.</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar uma equipe de ({1}).</t>
+  </si>
+  <si>
+    <t>Envie ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ajudar {0} a treinar os aldeões ({2}) para se tornarem ({3}).</t>
+  </si>
+  <si>
+    <t>Escolte a caravana de [$tagplace:name:{0}$] para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Doe ({0}) Utar</t>
+  </si>
+  <si>
+    <t>Junte-se à tribo [$tagrole:campname:{1}$].</t>
+  </si>
+  <si>
+    <t>Capture o posto avançado ([$tagplace:name:{1}$]).</t>
+  </si>
+  <si>
+    <t>Convencer o comandante inimigo [$tagrole:name:{1}$] a render-se.</t>
+  </si>
+  <si>
+    <t>Acuse o líder ([$tagrole:nome:{1}$]).</t>
+  </si>
+  <si>
+    <t>Instigue uma rebelião ([$tagrole:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Ensine uma lição ao canalha da taverna em [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a enviar uma carta para [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务送信英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
+Eu gostaria de saber mais sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
     <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
@@ -509,32 +526,28 @@
     <t>Eu gostaria de saber mais sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务送信英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
-Eu gostaria de saber mais sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora para que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de algumas amostras de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; delas.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espera que você possa atender ao pedido deles. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar pela sua ajuda.
-Embora haja uma miríade de métodos para adquirir o que eles precisam, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$]</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um orçamento de [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar se você puder pegar &lt;color=red&gt;{2}&lt;/color&gt; amostras.
-Eles sugerem procurar em [$tagproduct:available_places:{1}$] por isso. No entanto, pode haver outras maneiras de conseguir o que você quer.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve {2} Utar a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu que você recupere o dinheiro que eles ganharam com tanto esforço.
-Você concordou em trabalhar com uma comissão de 20%, e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
+    <t>O que você pode me dizer sobre [$tagrole:name:{1}$]?#Random Quest: Letter Delivery 1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;, por favor, entregue esta carta à &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;, por favor, entregue esta carta à &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de alguns [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; unidades.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espera que você possa atender ao pedido. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] de Utar pela sua ajuda.
+Embora existam inúmeras maneiras de obter o que eles precisam, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$].</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está precisando de alguns [$tagproduct:item_name:{1}$] e les estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] de Utar se você puder conseguir &lt;color=red&gt;{2}&lt;/color&gt; unidadaes.
+Eles sugerem procurar em [$tagproduct:available_places:{1}$]. No entanto, pode haver outras maneiras de conseguir.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{1}$]]] está devendo [[imp:[$tagrole:name:{0}$]]], {2} de Utar. Peço a você, [[imp:[$tagrole:name:{0}$]]], que vá ajudar a recuperar.
+Como recompensa, você receberá um quinto disso, ou seja, [&amp;{2}/5&amp;] Utar.</t>
   </si>
   <si>
     <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
@@ -543,130 +556,144 @@
     <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e relate a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá destruí-los.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Resgate-os.</t>
-  </si>
-  <si>
-    <t>Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-as, se puder.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa encontrar um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; e derrotá-los.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa trazer um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; da sua equipe designa &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;para uma missão.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; para &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio de bandidos.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você escolte a caravana deles até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Os fundos estão acabando para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudar a doar alguns Utar para a causa.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para dar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;,  pedindo-lhe que o aceitasse em sua tribo.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para entregar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a você.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer reunir informações sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-los por seus crimes.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; para formar sua própria tribo.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para brigar com os arruaceiros locais.</t>
-  </si>
-  <si>
-    <t>0#Entregar uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Entregar uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>4#Recuperar {2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
-    <t>4#Recuperar [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
-  </si>
-  <si>
-    <t>0#Cobre uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+    <t>&lt;color=red&gt;[$tagrole:nome:{0}$]&lt;/color&gt; espera que você possa ajudá-lo a derrotar &lt;color=red&gt;[$tagrole:nome:{1}$]&lt;/color&gt;. Vença as forças de &lt;color=red&gt;[$tagrole:nome:{1}$]&lt;/color&gt; e depois informe a &lt;color=red&gt;[$tagrole:nome:{0}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá aniquilá-los com a sua equipe.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:nome:{0}$]&lt;/color&gt; espera que você consiga capturar um fugitivo em &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt;.
+Talvez eles estejam aos arredores.</t>
+  </si>
+  <si>
+    <t>Bandidos nas proximidades de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Resgate-os.</t>
+  </si>
+  <si>
+    <t>Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-as, se puder.
+Talvez estejam aos arredores da cidade.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:nome:{0}$]&lt;/color&gt; espera que você possa encontrar uma equipe inteira de desertores perto de &lt;color=red&gt;[$tagplace:nome:{1}$]&lt;/color&gt; e derrotá-los.
+Talves estejam aos arredores da cidade.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa trazer para eles uma equipe/tropas de &lt;color=red&gt;{1}&lt;/color&gt; e uma equipe/tropas de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] designa [[imp:[$tagrole:name:{1}$]]] da sua equipe para realizar uma tarefa.</t>
+  </si>
+  <si>
+    <t>[[imp:{0}]] espera que você possa treinar uma equipe de [[imp:{2}]] até se tornarem [[imp:{3}]], para protegê-los de bandidos.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagplace:name:{0}$]]] solicita que você escolte uma caravana até [[imp:[$tagplace:name:{1}$]]].</t>
+  </si>
+  <si>
+    <t>Os recursos estão ficando escassos para [[imp:{0}]], que espera que você possa ajudá-lo doando alguns Utar para a causa.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] escreveu uma carta de apresentação para [[imp:[$tagrole:name:{1}$]]], recomendando que você se junte à tribo deles.</t>
+  </si>
+  <si>
+    <t>[imp:[$tagrole:name:{0}$]]], sugiro que você ataque e conquiste [imp:[$tagplace:name:{1}$]].</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] está preparado para entregar [[imp:[$tagrole:name:{1}$]]] a você.</t>
+  </si>
+  <si>
+    <t>[[$tagrole:name:{0}$]]] está planejando coletar evidências contra aqueles que são prejudiciais para [[$tagrole:name:{1}$]]] e acusá-los.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] deseja ajuda para incitar uma rebelião contra o governante de [[imp:[$tagrole:campname:{1}$]]], a fim de formar sua própria tribo.</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]], por favor, entregue uma carta para [[imp:[$tagrole:name:{1}$]]].</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] espero que você possa organizar uma luta na taverna de [[imp:[$tagplace:name:{1}$]]], para dar uma lição nos valentões locais.</t>
+  </si>
+  <si>
+    <t>0#Entregue a carta em [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Entregue a carta para [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Encontrou {2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>4#Encontrou [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
+  </si>
+  <si>
+    <t>0#Cobre à dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Obtenha [$tagproduct:item_name:{2}$]×{3}#{3}#[$tagproduct:item_id:{2}$]#
+0#Transporte os suprimentos para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
     <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
-0#Transporte as mercadorias para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+0#Transporte os suprimentos para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
     <t>2#Derrote [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
   </si>
   <si>
-    <t>0#Derrote os bandidos em#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
-    <t>0#Capturar o fugitivo em#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre os bandidos e resgate o nobre#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre as crianças fugitivas#3##@place={0}</t>
-  </si>
-  <si>
-    <t>0#Procure desertores em #1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>10#Recrutar um esquadrão de {1}#1#{1}
-10#Recrutar um esquadrão de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Aguardando [$tagrole:name:{1}$] tretornar ao time#1</t>
-  </si>
-  <si>
-    <t>10#Treinar um esquadrão de {2}#1#{2}</t>
-  </si>
-  <si>
-    <t>0#Escoltar uma caravana#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
-    <t>0#Encontre [$tagrole:name:{1}$] e jure sua lealdade#0##@role={1}</t>
-  </si>
-  <si>
-    <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
-  </si>
-  <si>
-    <t>0#Peça a rendição de [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
-    <t>0#Colete provas contra [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
-    <t>0#Reúna o apoio dos insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;#2</t>
-  </si>
-  <si>
-    <t>0#Viaje para a taverna em&lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>0#Derrote os bandidos #1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>0#Capture os fugitivos #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre os bandidos e resgate os nobres #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre as crianças fugitivas #3##@place={0}</t>
+  </si>
+  <si>
+    <t>0#Procure pelos desertores #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>10#Recrute um esquadrão/unidade{1} #1#{1}
+10#Recrute um esquadrão/unidade{2} #1#{2}</t>
+  </si>
+  <si>
+    <t>0#Espere por [$tagrole:name:{1}$] para retornar #1
+Você é livre para andar pelo mapa.</t>
+  </si>
+  <si>
+    <t>10#Treine um esquadrão/unidade de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Escolte a caravana #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre [$tagrole:name:{1}$] e jure lealdade #0##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Colete evidências contra [$tagrole:name:{1}$] #3</t>
+  </si>
+  <si>
+    <t>0#Peça para que [$tagrole:name:{1}$] se renda #1##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Ataque e conquiste [$tagplace:name:{1}$] #1##@place={1}</t>
+  </si>
+  <si>
+    <t>0#Reúna o apoio daqueles que estão insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;#2</t>
+  </si>
+  <si>
+    <t>0#Vá para a taverna de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;, e desafie esses encrenqueiros#1##@place={1}</t>
+  </si>
+  <si>
+    <t>0#Entregue a carta para [$tagrole:name:{1}$].#1##@role={1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -688,20 +715,26 @@
       <name val="宋体"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="8">
@@ -777,7 +810,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,8 +829,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -813,12 +849,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,12 +858,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1182,50 +1222,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="I24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="109.125" customWidth="1"/>
-    <col min="7" max="7" width="255.625" customWidth="1"/>
-    <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="138.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
+    <col min="5" max="5" width="174.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
     <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1236,21 +1276,21 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>117</v>
+      <c r="C2" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>149</v>
+      <c r="G2" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>173</v>
+      <c r="I2" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="56.25">
@@ -1260,26 +1300,26 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>118</v>
+      <c r="C3" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>146</v>
+      <c r="E3" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>149</v>
+      <c r="G3" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>174</v>
+      <c r="I3" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75">
@@ -1289,180 +1329,180 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>119</v>
+      <c r="C4" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>150</v>
+      <c r="G4" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75">
+      <c r="I4" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="187.5">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>120</v>
+      <c r="C5" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75">
+      <c r="I5" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="168.75">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>121</v>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>147</v>
+      <c r="E6" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75">
+    <row r="7" spans="1:9" ht="112.5">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>122</v>
+      <c r="C7" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75">
+      <c r="I7" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112.5">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>123</v>
+      <c r="C8" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>154</v>
+      <c r="G8" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="112.5">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>124</v>
+      <c r="C9" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>155</v>
+      <c r="G9" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="112.5">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>125</v>
+      <c r="C10" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>156</v>
+      <c r="G10" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>179</v>
+      <c r="I10" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="56.25">
@@ -1472,21 +1512,21 @@
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>126</v>
+      <c r="C11" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>180</v>
+      <c r="I11" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="56.25">
@@ -1496,50 +1536,50 @@
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>127</v>
+      <c r="C12" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>143</v>
+      <c r="E12" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>158</v>
+      <c r="G12" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="56.25">
+      <c r="I12" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>128</v>
+      <c r="C13" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>159</v>
+      <c r="G13" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>182</v>
+      <c r="I13" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="56.25">
@@ -1549,50 +1589,50 @@
       <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>129</v>
+      <c r="C14" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>160</v>
+      <c r="G14" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="56.25">
+      <c r="I14" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>130</v>
+      <c r="C15" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>144</v>
+      <c r="E15" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>161</v>
+      <c r="G15" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>184</v>
+      <c r="I15" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="56.25">
@@ -1602,26 +1642,26 @@
       <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>131</v>
+      <c r="C16" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>145</v>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>162</v>
+      <c r="G16" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="56.25">
@@ -1631,21 +1671,21 @@
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>132</v>
+      <c r="C17" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>163</v>
+      <c r="G17" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>186</v>
+      <c r="I17" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="56.25">
@@ -1655,21 +1695,21 @@
       <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>133</v>
+      <c r="C18" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>164</v>
+      <c r="G18" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>187</v>
+      <c r="I18" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="56.25">
@@ -1679,21 +1719,21 @@
       <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>134</v>
+      <c r="C19" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>165</v>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>188</v>
+      <c r="I19" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="56.25">
@@ -1703,20 +1743,20 @@
       <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>135</v>
+      <c r="C20" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>166</v>
+      <c r="G20" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1727,21 +1767,21 @@
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>136</v>
+      <c r="C21" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>167</v>
+      <c r="G21" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>189</v>
+      <c r="I21" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="56.25">
@@ -1751,21 +1791,21 @@
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>137</v>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>168</v>
+      <c r="G22" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>190</v>
+      <c r="I22" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="56.25">
@@ -1775,21 +1815,21 @@
       <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>138</v>
+      <c r="C23" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>169</v>
+      <c r="G23" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>191</v>
+      <c r="I23" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="56.25">
@@ -1799,297 +1839,106 @@
       <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>139</v>
+      <c r="C24" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>170</v>
+      <c r="G24" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="56.25">
+      <c r="I24" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>140</v>
+      <c r="C25" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>171</v>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="37.5">
+      <c r="I25" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>141</v>
+      <c r="C26" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>172</v>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="I26" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="56.25">
+      <c r="A27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{215E5623-1EAC-4F4C-A782-FDC8169912E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>